--- a/script/xlsx2lang/excel/语言@Lang.xlsx
+++ b/script/xlsx2lang/excel/语言@Lang.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>键值</t>
   </si>
@@ -5692,6 +5692,24 @@
   </si>
   <si>
     <t>Para sacar dinheiro, você precisa entrar na fila. Ainda há %s pessoas na sua frente.</t>
+  </si>
+  <si>
+    <t>str_with_emtu</t>
+  </si>
+  <si>
+    <t>Earn %s more to unlock%s!</t>
+  </si>
+  <si>
+    <t>Ganhe mais %s para desbloquear %s!</t>
+  </si>
+  <si>
+    <t>str_with_smttu</t>
+  </si>
+  <si>
+    <t>Spin %s more times to unlock %s!</t>
+  </si>
+  <si>
+    <t>Gire mais %s vezes para desbloquear %s!</t>
   </si>
 </sst>
 </file>
@@ -6792,11 +6810,11 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -7202,8 +7220,28 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" ht="21" customHeight="1"/>
-    <row r="22" ht="21" customHeight="1"/>
+    <row r="21" ht="21" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="23" ht="21" customHeight="1"/>
     <row r="24" ht="21" customHeight="1"/>
     <row r="25" ht="21" customHeight="1"/>
